--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_5_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_5_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1990110.451528531</v>
+        <v>1935158.562244435</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.3872013177</v>
+        <v>408938.3872013175</v>
       </c>
     </row>
     <row r="8">
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>355.713466882157</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>68.40860258949182</v>
       </c>
       <c r="W11" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
         <v>382.2855674184499</v>
@@ -1451,16 +1451,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>38.44565182184051</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>65.59641470936546</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>86.89603752886883</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S12" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T12" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
         <v>217.3129144394706</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>52.42857711587136</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>152.3549420496103</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S14" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>104.0024271027449</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>40.79862668335817</v>
       </c>
       <c r="X14" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="15">
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>183.1202109091598</v>
       </c>
       <c r="D15" t="n">
-        <v>130.2646119085762</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S15" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>217.3129144394706</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>119.920671635353</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>76.53519509961447</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,13 +1846,13 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0353723969745</v>
+        <v>220.1290409659061</v>
       </c>
       <c r="V17" t="n">
-        <v>142.0125328254717</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="18">
@@ -1925,22 +1925,22 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>57.25825490276014</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.89603752886883</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>15.71916615484844</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>137.4545982671964</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.1432960270615</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2101074720032343</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>207.0716324031971</v>
+        <v>337.929930976757</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>194.7117974622146</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="21">
@@ -2165,16 +2165,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>38.44565182184051</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>47.3841480231355</v>
       </c>
       <c r="U21" t="n">
         <v>237.1773944157285</v>
@@ -2228,7 +2228,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>224.1841888012565</v>
+        <v>7.226885210985944</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>73.35340349906473</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>220.1290409659061</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>35.73043473151306</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>382.2855674184499</v>
@@ -2399,7 +2399,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>93.28400509910774</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>117.6320838744866</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.89603752886883</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S24" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U24" t="n">
         <v>237.1773944157285</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>8.916258666857022</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>131.0804113283489</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>218.5797582054724</v>
+        <v>175.3621260040305</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>3.329915919761908</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>177.283526739121</v>
@@ -2696,10 +2696,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>209.9748055430812</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>223.3842861340256</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>174.3941919203111</v>
+        <v>158.6107100818745</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>123.1434003800102</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0353723969745</v>
+        <v>228.6462889728014</v>
       </c>
       <c r="V29" t="n">
-        <v>204.7418097272727</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>105.0789054468057</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.89603752886883</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S30" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>144.8407193933342</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
         <v>217.3129144394706</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>152.3549420496104</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2994,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.1432960270615</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>2.474840865017248</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>12.73039857908773</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T32" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>240.4660086744117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,16 +3110,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>143.3021825157032</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>147.9743432409925</v>
@@ -3155,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T33" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>8.373183778873766</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
         <v>223.3842861340256</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3231,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.1432960270615</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>50.0001043529487</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>152.3549420496104</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3271,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>337.7721596422273</v>
+        <v>207.1815869696198</v>
       </c>
       <c r="E35" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I35" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S35" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U35" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>4.216722594182776</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3350,19 +3350,19 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>177.283526739121</v>
+        <v>79.9913286633857</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U36" t="n">
         <v>237.1773944157285</v>
@@ -3407,10 +3407,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>14.32501013152857</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8.916258666857136</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>80.39631948615272</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="38">
@@ -3505,22 +3505,22 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>158.5544880611391</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>119.7132633034012</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="39">
@@ -3584,19 +3584,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>3.727105734424545</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.89603752886883</v>
+        <v>47.99485606960538</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>158.6107100818746</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>75.61813689207861</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>188.9625998440373</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>371.4789120616362</v>
+        <v>158.5544880611384</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="42">
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>143.4660897532004</v>
+        <v>45.63099951739491</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
@@ -3866,25 +3866,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S42" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>74.58429473553585</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>54.89828378116018</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>75.61813689207872</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3982,13 +3982,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>269.0562111640181</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>169.867921206808</v>
       </c>
       <c r="Y44" t="n">
         <v>382.2855674184499</v>
@@ -4058,22 +4058,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>148.7154287681727</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>38.04813570318131</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>177.283526739121</v>
@@ -4112,19 +4112,19 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>152.3549420496105</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>160.0829940331247</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>137.4545982671966</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>988.2760455058778</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="C11" t="n">
-        <v>988.2760455058778</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="D11" t="n">
-        <v>988.2760455058778</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="E11" t="n">
-        <v>628.9695133016788</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="F11" t="n">
-        <v>221.6975439683318</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="G11" t="n">
-        <v>221.6975439683318</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I11" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J11" t="n">
-        <v>79.26440887602993</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K11" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L11" t="n">
         <v>525.5283691389723</v>
@@ -5056,37 +5056,37 @@
         <v>1186.279026157783</v>
       </c>
       <c r="O11" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P11" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q11" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R11" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S11" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T11" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U11" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V11" t="n">
-        <v>1715.732642722258</v>
+        <v>1541.127577930071</v>
       </c>
       <c r="W11" t="n">
-        <v>1374.423083302292</v>
+        <v>1541.127577930071</v>
       </c>
       <c r="X11" t="n">
-        <v>1374.423083302292</v>
+        <v>1177.710694804105</v>
       </c>
       <c r="Y11" t="n">
-        <v>988.2760455058778</v>
+        <v>791.5636570076908</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>611.1937644001405</v>
+        <v>73.148644593678</v>
       </c>
       <c r="C12" t="n">
-        <v>421.7814901331042</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D12" t="n">
-        <v>261.0013738941359</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E12" t="n">
-        <v>261.0013738941359</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F12" t="n">
-        <v>100.57365761138</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G12" t="n">
-        <v>100.57365761138</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H12" t="n">
-        <v>100.57365761138</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I12" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J12" t="n">
-        <v>54.4093011102587</v>
+        <v>54.40930111025865</v>
       </c>
       <c r="K12" t="n">
-        <v>215.5091216889814</v>
+        <v>215.5091216889813</v>
       </c>
       <c r="L12" t="n">
-        <v>304.6946924676437</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M12" t="n">
-        <v>679.5863020207053</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N12" t="n">
-        <v>1082.820066520716</v>
+        <v>1276.539627797432</v>
       </c>
       <c r="O12" t="n">
-        <v>1395.953100567611</v>
+        <v>1589.672661844326</v>
       </c>
       <c r="P12" t="n">
-        <v>1625.193464940061</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q12" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R12" t="n">
-        <v>1627.958867440573</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S12" t="n">
         <v>1448.884598007117</v>
       </c>
       <c r="T12" t="n">
-        <v>1234.878304775052</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="U12" t="n">
-        <v>1234.878304775052</v>
+        <v>1209.311472334664</v>
       </c>
       <c r="V12" t="n">
-        <v>1234.878304775052</v>
+        <v>966.2317542382978</v>
       </c>
       <c r="W12" t="n">
-        <v>1234.878304775052</v>
+        <v>696.8331849685891</v>
       </c>
       <c r="X12" t="n">
-        <v>1015.370310391748</v>
+        <v>477.3251905852854</v>
       </c>
       <c r="Y12" t="n">
-        <v>789.7296173270756</v>
+        <v>251.6844975206131</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>87.27281155734553</v>
+        <v>180.9637945218297</v>
       </c>
       <c r="C13" t="n">
-        <v>87.27281155734553</v>
+        <v>180.9637945218297</v>
       </c>
       <c r="D13" t="n">
-        <v>87.27281155734553</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E13" t="n">
-        <v>87.27281155734553</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F13" t="n">
-        <v>87.27281155734553</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G13" t="n">
-        <v>87.27281155734553</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H13" t="n">
-        <v>87.27281155734553</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I13" t="n">
         <v>34.31465285444516</v>
@@ -5202,49 +5202,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K13" t="n">
-        <v>42.23041924514574</v>
+        <v>42.23041924514568</v>
       </c>
       <c r="L13" t="n">
-        <v>105.4471208306433</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M13" t="n">
-        <v>180.6961586662945</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N13" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O13" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P13" t="n">
-        <v>334.8576753800222</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q13" t="n">
-        <v>334.8576753800222</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R13" t="n">
-        <v>334.8576753800222</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S13" t="n">
-        <v>334.8576753800222</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T13" t="n">
-        <v>334.8576753800222</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U13" t="n">
-        <v>334.8576753800222</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V13" t="n">
-        <v>87.27281155734553</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W13" t="n">
-        <v>87.27281155734553</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X13" t="n">
-        <v>87.27281155734553</v>
+        <v>180.9637945218297</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.27281155734553</v>
+        <v>180.9637945218297</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1050.584219631688</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="C14" t="n">
-        <v>1050.584219631688</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="D14" t="n">
-        <v>1050.584219631688</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="E14" t="n">
-        <v>1050.584219631688</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F14" t="n">
-        <v>643.3122502983405</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G14" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H14" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I14" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J14" t="n">
-        <v>79.26440887603007</v>
+        <v>79.26440887602962</v>
       </c>
       <c r="K14" t="n">
-        <v>253.8975067193753</v>
+        <v>253.8975067193748</v>
       </c>
       <c r="L14" t="n">
-        <v>525.5283691389723</v>
+        <v>525.5283691389717</v>
       </c>
       <c r="M14" t="n">
-        <v>856.6460009292781</v>
+        <v>856.6460009292775</v>
       </c>
       <c r="N14" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O14" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P14" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q14" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R14" t="n">
-        <v>1715.732642722259</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S14" t="n">
-        <v>1519.054059427093</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T14" t="n">
-        <v>1519.054059427093</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U14" t="n">
-        <v>1519.054059427093</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V14" t="n">
-        <v>1414.001102757653</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="W14" t="n">
-        <v>1414.001102757653</v>
+        <v>1569.016442481721</v>
       </c>
       <c r="X14" t="n">
-        <v>1050.584219631688</v>
+        <v>1205.599559355755</v>
       </c>
       <c r="Y14" t="n">
-        <v>1050.584219631688</v>
+        <v>819.452521559341</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>339.4582728022996</v>
+        <v>611.19376440014</v>
       </c>
       <c r="C15" t="n">
-        <v>339.4582728022996</v>
+        <v>426.2238543908877</v>
       </c>
       <c r="D15" t="n">
-        <v>207.8778567330307</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="E15" t="n">
-        <v>34.31465285444518</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="F15" t="n">
-        <v>34.31465285444518</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="G15" t="n">
-        <v>34.31465285444518</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H15" t="n">
-        <v>34.31465285444518</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I15" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J15" t="n">
-        <v>54.40930111025872</v>
+        <v>54.40930111025867</v>
       </c>
       <c r="K15" t="n">
-        <v>215.5091216889815</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L15" t="n">
-        <v>498.4142537443597</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M15" t="n">
-        <v>873.3058632974213</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N15" t="n">
-        <v>1082.820066520717</v>
+        <v>1276.539627797432</v>
       </c>
       <c r="O15" t="n">
-        <v>1395.953100567611</v>
+        <v>1589.672661844326</v>
       </c>
       <c r="P15" t="n">
-        <v>1625.193464940061</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q15" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R15" t="n">
-        <v>1715.732642722259</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S15" t="n">
-        <v>1536.658373288803</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T15" t="n">
-        <v>1536.658373288803</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U15" t="n">
-        <v>1297.08524761635</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="V15" t="n">
-        <v>1054.005529519984</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="W15" t="n">
-        <v>784.6069602502756</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="X15" t="n">
-        <v>565.098965866972</v>
+        <v>1015.370310391748</v>
       </c>
       <c r="Y15" t="n">
-        <v>339.4582728022996</v>
+        <v>789.7296173270752</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C16" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D16" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E16" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F16" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G16" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H16" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I16" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J16" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K16" t="n">
-        <v>42.23041924514575</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L16" t="n">
-        <v>105.4471208306433</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M16" t="n">
-        <v>180.6961586662945</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N16" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O16" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P16" t="n">
-        <v>334.8576753800222</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q16" t="n">
-        <v>334.8576753800222</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R16" t="n">
-        <v>334.8576753800222</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S16" t="n">
-        <v>334.8576753800222</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T16" t="n">
-        <v>111.6229307328436</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U16" t="n">
-        <v>111.6229307328436</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V16" t="n">
-        <v>111.6229307328436</v>
+        <v>213.7256838291604</v>
       </c>
       <c r="W16" t="n">
-        <v>111.6229307328436</v>
+        <v>213.7256838291604</v>
       </c>
       <c r="X16" t="n">
-        <v>34.31465285444518</v>
+        <v>213.7256838291604</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.31465285444518</v>
+        <v>213.7256838291604</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>745.1801749823653</v>
+        <v>388.0575795021006</v>
       </c>
       <c r="C17" t="n">
-        <v>745.1801749823653</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D17" t="n">
-        <v>745.1801749823653</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E17" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F17" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G17" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H17" t="n">
         <v>34.31465285444516</v>
@@ -5515,22 +5515,22 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J17" t="n">
-        <v>79.26440887602993</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K17" t="n">
         <v>253.8975067193751</v>
       </c>
       <c r="L17" t="n">
-        <v>525.5283691389723</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M17" t="n">
-        <v>856.6460009292781</v>
+        <v>856.6460009292783</v>
       </c>
       <c r="N17" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O17" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P17" t="n">
         <v>1650.639799716936</v>
@@ -5542,25 +5542,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S17" t="n">
-        <v>1519.054059427092</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T17" t="n">
-        <v>1519.054059427092</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U17" t="n">
-        <v>1266.493077207926</v>
+        <v>1493.38007609003</v>
       </c>
       <c r="V17" t="n">
-        <v>1123.046074353914</v>
+        <v>1493.38007609003</v>
       </c>
       <c r="W17" t="n">
-        <v>1123.046074353914</v>
+        <v>1152.070516670063</v>
       </c>
       <c r="X17" t="n">
-        <v>1123.046074353914</v>
+        <v>1152.070516670063</v>
       </c>
       <c r="Y17" t="n">
-        <v>1123.046074353914</v>
+        <v>765.9234788736494</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>504.9915189529295</v>
+        <v>711.3040340828904</v>
       </c>
       <c r="C18" t="n">
-        <v>504.9915189529295</v>
+        <v>521.8917598158541</v>
       </c>
       <c r="D18" t="n">
-        <v>344.2114027139612</v>
+        <v>361.1116435768859</v>
       </c>
       <c r="E18" t="n">
-        <v>344.2114027139612</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="F18" t="n">
-        <v>183.7836864312053</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="G18" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H18" t="n">
         <v>34.31465285444516</v>
@@ -5594,25 +5594,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J18" t="n">
-        <v>54.4093011102587</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K18" t="n">
-        <v>54.4093011102587</v>
+        <v>112.3287381944633</v>
       </c>
       <c r="L18" t="n">
-        <v>337.314433165637</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M18" t="n">
-        <v>712.2060427186985</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N18" t="n">
-        <v>1115.43980721871</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O18" t="n">
-        <v>1428.572841265604</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P18" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q18" t="n">
         <v>1715.732642722258</v>
@@ -5624,22 +5624,22 @@
         <v>1627.958867440573</v>
       </c>
       <c r="T18" t="n">
-        <v>1413.952574208507</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="U18" t="n">
-        <v>1398.074628597549</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="V18" t="n">
-        <v>1398.074628597549</v>
+        <v>1384.879149344207</v>
       </c>
       <c r="W18" t="n">
-        <v>1128.676059327841</v>
+        <v>1115.480580074498</v>
       </c>
       <c r="X18" t="n">
-        <v>909.168064944537</v>
+        <v>1115.480580074498</v>
       </c>
       <c r="Y18" t="n">
-        <v>683.5273718798646</v>
+        <v>889.8398870098256</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="C19" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="D19" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="E19" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="F19" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="G19" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="H19" t="n">
         <v>34.31465285444516</v>
@@ -5676,7 +5676,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K19" t="n">
-        <v>42.23041924514574</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L19" t="n">
         <v>105.4471208306433</v>
@@ -5685,40 +5685,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N19" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O19" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P19" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q19" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R19" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S19" t="n">
-        <v>34.5268826241454</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T19" t="n">
-        <v>34.5268826241454</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U19" t="n">
-        <v>34.5268826241454</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V19" t="n">
-        <v>34.5268826241454</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W19" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="X19" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1204.385328156414</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="C20" t="n">
-        <v>1204.385328156414</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="D20" t="n">
-        <v>863.2013285178008</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="E20" t="n">
-        <v>863.2013285178008</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="F20" t="n">
-        <v>455.9293591844538</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="G20" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H20" t="n">
         <v>34.31465285444516</v>
@@ -5776,28 +5776,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R20" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S20" t="n">
-        <v>1413.548593210149</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T20" t="n">
-        <v>1413.548593210149</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="U20" t="n">
-        <v>1413.548593210149</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="V20" t="n">
-        <v>1413.548593210149</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="W20" t="n">
-        <v>1413.548593210149</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="X20" t="n">
-        <v>1413.548593210149</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="Y20" t="n">
-        <v>1413.548593210149</v>
+        <v>1132.907021630678</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>73.148644593678</v>
+        <v>517.7746065925467</v>
       </c>
       <c r="C21" t="n">
-        <v>73.148644593678</v>
+        <v>517.7746065925467</v>
       </c>
       <c r="D21" t="n">
-        <v>34.31465285444516</v>
+        <v>517.7746065925467</v>
       </c>
       <c r="E21" t="n">
-        <v>34.31465285444516</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="F21" t="n">
-        <v>34.31465285444516</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="G21" t="n">
         <v>34.31465285444516</v>
@@ -5831,52 +5831,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J21" t="n">
-        <v>54.4093011102587</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K21" t="n">
-        <v>215.5091216889814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="L21" t="n">
-        <v>498.4142537443597</v>
+        <v>317.2197849098234</v>
       </c>
       <c r="M21" t="n">
-        <v>873.3058632974213</v>
+        <v>692.1113944628851</v>
       </c>
       <c r="N21" t="n">
-        <v>1082.820066520716</v>
+        <v>1095.345158962896</v>
       </c>
       <c r="O21" t="n">
-        <v>1395.95310056761</v>
+        <v>1408.47819300979</v>
       </c>
       <c r="P21" t="n">
-        <v>1625.19346494006</v>
+        <v>1637.71855738224</v>
       </c>
       <c r="Q21" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R21" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S21" t="n">
-        <v>1448.884598007117</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T21" t="n">
-        <v>1448.884598007117</v>
+        <v>1667.869866941313</v>
       </c>
       <c r="U21" t="n">
-        <v>1209.311472334664</v>
+        <v>1428.29674126886</v>
       </c>
       <c r="V21" t="n">
-        <v>966.2317542382978</v>
+        <v>1185.217023172494</v>
       </c>
       <c r="W21" t="n">
-        <v>696.8331849685891</v>
+        <v>915.8184539027854</v>
       </c>
       <c r="X21" t="n">
-        <v>477.3251905852854</v>
+        <v>696.3104595194818</v>
       </c>
       <c r="Y21" t="n">
-        <v>251.6844975206131</v>
+        <v>696.3104595194818</v>
       </c>
     </row>
     <row r="22">
@@ -5937,16 +5937,16 @@
         <v>334.8576753800222</v>
       </c>
       <c r="S22" t="n">
-        <v>108.4089998231974</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="T22" t="n">
-        <v>108.4089998231974</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="U22" t="n">
-        <v>34.31465285444516</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="V22" t="n">
-        <v>34.31465285444516</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="W22" t="n">
         <v>34.31465285444516</v>
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>409.5458771591282</v>
+        <v>610.410146134329</v>
       </c>
       <c r="C23" t="n">
-        <v>409.5458771591282</v>
+        <v>256.6672194866736</v>
       </c>
       <c r="D23" t="n">
-        <v>409.5458771591282</v>
+        <v>256.6672194866736</v>
       </c>
       <c r="E23" t="n">
         <v>34.31465285444516</v>
@@ -5989,16 +5989,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J23" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K23" t="n">
         <v>253.897506719375</v>
       </c>
       <c r="L23" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M23" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N23" t="n">
         <v>1186.279026157783</v>
@@ -6013,28 +6013,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R23" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S23" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T23" t="n">
-        <v>1195.201146295158</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U23" t="n">
-        <v>1195.201146295158</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V23" t="n">
-        <v>1159.109798081508</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W23" t="n">
-        <v>1159.109798081508</v>
+        <v>1374.423083302292</v>
       </c>
       <c r="X23" t="n">
-        <v>795.6929149555422</v>
+        <v>1374.423083302292</v>
       </c>
       <c r="Y23" t="n">
-        <v>409.5458771591282</v>
+        <v>988.2760455058778</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>342.5472138633871</v>
+        <v>128.5409206313217</v>
       </c>
       <c r="C24" t="n">
-        <v>153.1349395963508</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D24" t="n">
-        <v>153.1349395963508</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E24" t="n">
-        <v>153.1349395963508</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F24" t="n">
-        <v>153.1349395963508</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G24" t="n">
         <v>34.31465285444516</v>
@@ -6068,19 +6068,19 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J24" t="n">
-        <v>54.4093011102587</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K24" t="n">
         <v>215.5091216889814</v>
       </c>
       <c r="L24" t="n">
-        <v>498.4142537443597</v>
+        <v>498.4142537443596</v>
       </c>
       <c r="M24" t="n">
-        <v>873.3058632974213</v>
+        <v>873.3058632974212</v>
       </c>
       <c r="N24" t="n">
-        <v>1082.820066520716</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O24" t="n">
         <v>1395.953100567611</v>
@@ -6098,22 +6098,22 @@
         <v>1448.884598007117</v>
       </c>
       <c r="T24" t="n">
-        <v>1448.884598007117</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="U24" t="n">
-        <v>1209.311472334664</v>
+        <v>995.3051791025987</v>
       </c>
       <c r="V24" t="n">
-        <v>966.2317542382982</v>
+        <v>752.2254610062328</v>
       </c>
       <c r="W24" t="n">
-        <v>966.2317542382982</v>
+        <v>752.2254610062328</v>
       </c>
       <c r="X24" t="n">
-        <v>746.7237598549946</v>
+        <v>532.7174666229291</v>
       </c>
       <c r="Y24" t="n">
-        <v>521.0830667903222</v>
+        <v>307.0767735582568</v>
       </c>
     </row>
     <row r="25">
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>202.4532194928011</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="C25" t="n">
-        <v>34.31465285444516</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="D25" t="n">
         <v>34.31465285444516</v>
@@ -6150,7 +6150,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K25" t="n">
-        <v>42.23041924514574</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L25" t="n">
         <v>105.4471208306433</v>
@@ -6159,40 +6159,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N25" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O25" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P25" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q25" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R25" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S25" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T25" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U25" t="n">
-        <v>334.8576753800222</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="V25" t="n">
-        <v>334.8576753800222</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="W25" t="n">
-        <v>202.4532194928011</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="X25" t="n">
-        <v>202.4532194928011</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="Y25" t="n">
-        <v>202.4532194928011</v>
+        <v>43.32097474015933</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>255.1022874054274</v>
+        <v>1329.585604925844</v>
       </c>
       <c r="C26" t="n">
-        <v>255.1022874054274</v>
+        <v>1329.585604925844</v>
       </c>
       <c r="D26" t="n">
-        <v>255.1022874054274</v>
+        <v>1329.585604925844</v>
       </c>
       <c r="E26" t="n">
-        <v>255.1022874054274</v>
+        <v>954.3543806211611</v>
       </c>
       <c r="F26" t="n">
-        <v>255.1022874054274</v>
+        <v>547.0824112878141</v>
       </c>
       <c r="G26" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H26" t="n">
         <v>34.31465285444516</v>
@@ -6226,10 +6226,10 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J26" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K26" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L26" t="n">
         <v>525.528369138972</v>
@@ -6250,28 +6250,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R26" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S26" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T26" t="n">
-        <v>1195.201146295158</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U26" t="n">
-        <v>942.6401640759913</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V26" t="n">
-        <v>618.5191705313932</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W26" t="n">
-        <v>618.5191705313932</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="X26" t="n">
-        <v>255.1022874054274</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Y26" t="n">
-        <v>255.1022874054274</v>
+        <v>1329.585604925844</v>
       </c>
     </row>
     <row r="27">
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>37.6782042885481</v>
+        <v>223.7269271214815</v>
       </c>
       <c r="C27" t="n">
         <v>34.31465285444516</v>
@@ -6305,19 +6305,19 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J27" t="n">
-        <v>54.4093011102587</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K27" t="n">
-        <v>54.4093011102587</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L27" t="n">
-        <v>337.314433165637</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M27" t="n">
-        <v>712.2060427186985</v>
+        <v>679.5863020207055</v>
       </c>
       <c r="N27" t="n">
-        <v>1115.43980721871</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O27" t="n">
         <v>1395.953100567611</v>
@@ -6329,28 +6329,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R27" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S27" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T27" t="n">
-        <v>1234.878304775052</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U27" t="n">
-        <v>995.3051791025987</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V27" t="n">
-        <v>752.2254610062328</v>
+        <v>839.9992362879184</v>
       </c>
       <c r="W27" t="n">
-        <v>482.8268917365241</v>
+        <v>627.9034731130889</v>
       </c>
       <c r="X27" t="n">
-        <v>263.3188973532204</v>
+        <v>627.9034731130889</v>
       </c>
       <c r="Y27" t="n">
-        <v>37.6782042885481</v>
+        <v>402.2627800484165</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="C28" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="D28" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="E28" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="F28" t="n">
         <v>34.31465285444516</v>
@@ -6387,7 +6387,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K28" t="n">
-        <v>42.23041924514574</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L28" t="n">
         <v>105.4471208306433</v>
@@ -6396,40 +6396,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N28" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O28" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P28" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q28" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R28" t="n">
-        <v>158.7019259655666</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="S28" t="n">
-        <v>158.7019259655666</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="T28" t="n">
-        <v>158.7019259655666</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="U28" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="V28" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="W28" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="X28" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="Y28" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1150.856285470723</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="C29" t="n">
-        <v>797.1133588230673</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="D29" t="n">
         <v>455.9293591844538</v>
@@ -6454,61 +6454,61 @@
         <v>455.9293591844538</v>
       </c>
       <c r="G29" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H29" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I29" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J29" t="n">
-        <v>79.26440887603007</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K29" t="n">
-        <v>253.8975067193758</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L29" t="n">
-        <v>525.5283691389727</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M29" t="n">
-        <v>856.6460009292786</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N29" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O29" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P29" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q29" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R29" t="n">
-        <v>1610.227176505316</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S29" t="n">
-        <v>1610.227176505316</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T29" t="n">
-        <v>1610.227176505316</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U29" t="n">
-        <v>1357.66619428615</v>
+        <v>1484.776795274984</v>
       </c>
       <c r="V29" t="n">
-        <v>1150.856285470723</v>
+        <v>1160.655801730386</v>
       </c>
       <c r="W29" t="n">
-        <v>1150.856285470723</v>
+        <v>819.3462423104196</v>
       </c>
       <c r="X29" t="n">
-        <v>1150.856285470723</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="Y29" t="n">
-        <v>1150.856285470723</v>
+        <v>455.9293591844538</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>207.8778567330307</v>
+        <v>503.4304395321939</v>
       </c>
       <c r="C30" t="n">
-        <v>207.8778567330307</v>
+        <v>314.0181652651577</v>
       </c>
       <c r="D30" t="n">
-        <v>207.8778567330307</v>
+        <v>314.0181652651577</v>
       </c>
       <c r="E30" t="n">
-        <v>34.31465285444518</v>
+        <v>140.4549613865721</v>
       </c>
       <c r="F30" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G30" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H30" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I30" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J30" t="n">
-        <v>34.31465285444518</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K30" t="n">
-        <v>34.31465285444518</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="L30" t="n">
-        <v>317.2197849098234</v>
+        <v>337.3144331656369</v>
       </c>
       <c r="M30" t="n">
-        <v>692.1113944628851</v>
+        <v>712.2060427186984</v>
       </c>
       <c r="N30" t="n">
-        <v>1095.345158962896</v>
+        <v>1115.43980721871</v>
       </c>
       <c r="O30" t="n">
-        <v>1395.953100567611</v>
+        <v>1428.572841265604</v>
       </c>
       <c r="P30" t="n">
-        <v>1625.193464940061</v>
+        <v>1657.813205638054</v>
       </c>
       <c r="Q30" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R30" t="n">
         <v>1627.958867440573</v>
       </c>
       <c r="S30" t="n">
-        <v>1448.884598007118</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="T30" t="n">
-        <v>1234.878304775052</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="U30" t="n">
-        <v>995.3051791025991</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="V30" t="n">
-        <v>752.2254610062332</v>
+        <v>1170.872856112141</v>
       </c>
       <c r="W30" t="n">
-        <v>605.9217040432694</v>
+        <v>901.4742868424327</v>
       </c>
       <c r="X30" t="n">
-        <v>386.4137096599658</v>
+        <v>681.966292459129</v>
       </c>
       <c r="Y30" t="n">
-        <v>386.4137096599658</v>
+        <v>681.966292459129</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="C31" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="D31" t="n">
-        <v>34.31465285444518</v>
+        <v>188.2085337126375</v>
       </c>
       <c r="E31" t="n">
-        <v>34.31465285444518</v>
+        <v>188.2085337126375</v>
       </c>
       <c r="F31" t="n">
-        <v>34.31465285444518</v>
+        <v>188.2085337126375</v>
       </c>
       <c r="G31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K31" t="n">
-        <v>42.23041924514575</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L31" t="n">
         <v>105.4471208306433</v>
@@ -6633,40 +6633,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N31" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O31" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P31" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q31" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R31" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S31" t="n">
-        <v>258.475718923377</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T31" t="n">
-        <v>258.475718923377</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U31" t="n">
-        <v>258.475718923377</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V31" t="n">
-        <v>258.475718923377</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W31" t="n">
-        <v>258.475718923377</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="X31" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Y31" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800221</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>34.31465285444518</v>
+        <v>1519.054059427093</v>
       </c>
       <c r="C32" t="n">
-        <v>34.31465285444518</v>
+        <v>1165.311132779437</v>
       </c>
       <c r="D32" t="n">
-        <v>34.31465285444518</v>
+        <v>1165.311132779437</v>
       </c>
       <c r="E32" t="n">
-        <v>34.31465285444518</v>
+        <v>790.0799084747542</v>
       </c>
       <c r="F32" t="n">
-        <v>34.31465285444518</v>
+        <v>382.8079391414072</v>
       </c>
       <c r="G32" t="n">
-        <v>34.31465285444518</v>
+        <v>382.8079391414072</v>
       </c>
       <c r="H32" t="n">
-        <v>34.31465285444518</v>
+        <v>47.17364131817016</v>
       </c>
       <c r="I32" t="n">
         <v>34.31465285444518</v>
       </c>
       <c r="J32" t="n">
-        <v>79.2644088760299</v>
+        <v>79.2644088760303</v>
       </c>
       <c r="K32" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719376</v>
       </c>
       <c r="L32" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389729</v>
       </c>
       <c r="M32" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292789</v>
       </c>
       <c r="N32" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157784</v>
       </c>
       <c r="O32" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P32" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q32" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R32" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S32" t="n">
-        <v>1413.548593210149</v>
+        <v>1519.054059427093</v>
       </c>
       <c r="T32" t="n">
-        <v>1195.201146295158</v>
+        <v>1519.054059427093</v>
       </c>
       <c r="U32" t="n">
-        <v>942.6401640759913</v>
+        <v>1519.054059427093</v>
       </c>
       <c r="V32" t="n">
-        <v>618.5191705313932</v>
+        <v>1519.054059427093</v>
       </c>
       <c r="W32" t="n">
-        <v>277.2096111114267</v>
+        <v>1519.054059427093</v>
       </c>
       <c r="X32" t="n">
-        <v>277.2096111114267</v>
+        <v>1519.054059427093</v>
       </c>
       <c r="Y32" t="n">
-        <v>34.31465285444518</v>
+        <v>1519.054059427093</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>518.127006548759</v>
+        <v>851.9365601683742</v>
       </c>
       <c r="C33" t="n">
-        <v>518.127006548759</v>
+        <v>662.5242859013379</v>
       </c>
       <c r="D33" t="n">
-        <v>357.3468903097908</v>
+        <v>517.7746065925468</v>
       </c>
       <c r="E33" t="n">
-        <v>183.7836864312053</v>
+        <v>344.2114027139612</v>
       </c>
       <c r="F33" t="n">
         <v>183.7836864312053</v>
@@ -6779,22 +6779,22 @@
         <v>34.31465285444518</v>
       </c>
       <c r="J33" t="n">
-        <v>54.40930111025872</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K33" t="n">
-        <v>215.5091216889815</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L33" t="n">
-        <v>304.6946924676441</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M33" t="n">
-        <v>679.5863020207057</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N33" t="n">
-        <v>1082.820066520717</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O33" t="n">
-        <v>1395.953100567611</v>
+        <v>1569.578013588513</v>
       </c>
       <c r="P33" t="n">
         <v>1625.193464940061</v>
@@ -6803,28 +6803,28 @@
         <v>1715.732642722259</v>
       </c>
       <c r="R33" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S33" t="n">
-        <v>1448.884598007118</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T33" t="n">
-        <v>1234.878304775052</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="U33" t="n">
-        <v>995.3051791025991</v>
+        <v>1297.08524761635</v>
       </c>
       <c r="V33" t="n">
-        <v>752.2254610062332</v>
+        <v>1297.08524761635</v>
       </c>
       <c r="W33" t="n">
-        <v>752.2254610062332</v>
+        <v>1297.08524761635</v>
       </c>
       <c r="X33" t="n">
-        <v>743.7676996134314</v>
+        <v>1077.577253233047</v>
       </c>
       <c r="Y33" t="n">
-        <v>518.127006548759</v>
+        <v>851.9365601683742</v>
       </c>
     </row>
     <row r="34">
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34.31465285444518</v>
+        <v>180.9637945218297</v>
       </c>
       <c r="C34" t="n">
-        <v>34.31465285444518</v>
+        <v>180.9637945218297</v>
       </c>
       <c r="D34" t="n">
         <v>34.31465285444518</v>
@@ -6861,7 +6861,7 @@
         <v>34.31465285444518</v>
       </c>
       <c r="K34" t="n">
-        <v>42.23041924514575</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L34" t="n">
         <v>105.4471208306433</v>
@@ -6870,40 +6870,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N34" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O34" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P34" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R34" t="n">
-        <v>84.81980876651457</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S34" t="n">
-        <v>84.81980876651457</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T34" t="n">
-        <v>84.81980876651457</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U34" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V34" t="n">
-        <v>34.31465285444518</v>
+        <v>180.9637945218297</v>
       </c>
       <c r="W34" t="n">
-        <v>34.31465285444518</v>
+        <v>180.9637945218297</v>
       </c>
       <c r="X34" t="n">
-        <v>34.31465285444518</v>
+        <v>180.9637945218297</v>
       </c>
       <c r="Y34" t="n">
-        <v>34.31465285444518</v>
+        <v>180.9637945218297</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>938.1127679116282</v>
+        <v>579.2232809500255</v>
       </c>
       <c r="C35" t="n">
-        <v>938.1127679116282</v>
+        <v>579.2232809500255</v>
       </c>
       <c r="D35" t="n">
-        <v>596.9287682730148</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="E35" t="n">
-        <v>221.6975439683318</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="F35" t="n">
-        <v>221.6975439683318</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="G35" t="n">
-        <v>221.6975439683318</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H35" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I35" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J35" t="n">
-        <v>79.26440887602993</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K35" t="n">
         <v>253.8975067193751</v>
       </c>
       <c r="L35" t="n">
-        <v>525.5283691389718</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M35" t="n">
-        <v>856.6460009292776</v>
+        <v>856.6460009292782</v>
       </c>
       <c r="N35" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O35" t="n">
         <v>1460.632785841149</v>
@@ -6961,28 +6961,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R35" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S35" t="n">
-        <v>1519.054059427092</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T35" t="n">
-        <v>1519.054059427092</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="U35" t="n">
-        <v>1266.493077207926</v>
+        <v>942.6401640759913</v>
       </c>
       <c r="V35" t="n">
-        <v>942.372083663328</v>
+        <v>942.6401640759913</v>
       </c>
       <c r="W35" t="n">
-        <v>938.1127679116282</v>
+        <v>942.6401640759913</v>
       </c>
       <c r="X35" t="n">
-        <v>938.1127679116282</v>
+        <v>579.2232809500255</v>
       </c>
       <c r="Y35" t="n">
-        <v>938.1127679116282</v>
+        <v>579.2232809500255</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>813.8951292517472</v>
+        <v>223.7269271214815</v>
       </c>
       <c r="C36" t="n">
-        <v>624.4828549847109</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D36" t="n">
-        <v>463.7027387457426</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E36" t="n">
-        <v>463.7027387457426</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F36" t="n">
-        <v>303.2750224629867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G36" t="n">
-        <v>153.8059888862266</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H36" t="n">
         <v>34.31465285444516</v>
@@ -7016,16 +7016,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J36" t="n">
-        <v>54.4093011102587</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K36" t="n">
         <v>215.5091216889814</v>
       </c>
       <c r="L36" t="n">
-        <v>498.4142537443597</v>
+        <v>498.4142537443596</v>
       </c>
       <c r="M36" t="n">
-        <v>873.3058632974213</v>
+        <v>873.3058632974212</v>
       </c>
       <c r="N36" t="n">
         <v>1276.539627797432</v>
@@ -7034,7 +7034,7 @@
         <v>1589.672661844326</v>
       </c>
       <c r="P36" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q36" t="n">
         <v>1715.732642722258</v>
@@ -7043,25 +7043,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S36" t="n">
-        <v>1536.658373288803</v>
+        <v>1634.933320840051</v>
       </c>
       <c r="T36" t="n">
-        <v>1536.658373288803</v>
+        <v>1420.927027607985</v>
       </c>
       <c r="U36" t="n">
-        <v>1297.08524761635</v>
+        <v>1181.353901935532</v>
       </c>
       <c r="V36" t="n">
-        <v>1054.005529519984</v>
+        <v>938.2741838391661</v>
       </c>
       <c r="W36" t="n">
-        <v>1039.53582231642</v>
+        <v>668.8756145694574</v>
       </c>
       <c r="X36" t="n">
-        <v>1039.53582231642</v>
+        <v>449.3676201861538</v>
       </c>
       <c r="Y36" t="n">
-        <v>813.8951292517472</v>
+        <v>223.7269271214815</v>
       </c>
     </row>
     <row r="37">
@@ -7098,7 +7098,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K37" t="n">
-        <v>42.23041924514574</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L37" t="n">
         <v>105.4471208306433</v>
@@ -7107,40 +7107,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N37" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O37" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P37" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q37" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R37" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S37" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T37" t="n">
-        <v>334.8576753800222</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="U37" t="n">
-        <v>43.32097474015944</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="V37" t="n">
-        <v>43.32097474015944</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="W37" t="n">
-        <v>43.32097474015944</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="X37" t="n">
-        <v>43.32097474015944</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="Y37" t="n">
-        <v>43.32097474015944</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1216.944255165456</v>
+        <v>951.719705554296</v>
       </c>
       <c r="C38" t="n">
-        <v>863.2013285178008</v>
+        <v>951.719705554296</v>
       </c>
       <c r="D38" t="n">
-        <v>863.2013285178008</v>
+        <v>951.719705554296</v>
       </c>
       <c r="E38" t="n">
-        <v>863.2013285178008</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="F38" t="n">
-        <v>455.9293591844538</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="G38" t="n">
-        <v>34.31465285444518</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H38" t="n">
         <v>34.31465285444518</v>
@@ -7174,19 +7174,19 @@
         <v>34.31465285444518</v>
       </c>
       <c r="J38" t="n">
-        <v>79.26440887603007</v>
+        <v>79.2644088760303</v>
       </c>
       <c r="K38" t="n">
-        <v>253.8975067193758</v>
+        <v>253.897506719376</v>
       </c>
       <c r="L38" t="n">
-        <v>525.5283691389727</v>
+        <v>525.5283691389729</v>
       </c>
       <c r="M38" t="n">
-        <v>856.6460009292786</v>
+        <v>856.6460009292789</v>
       </c>
       <c r="N38" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157784</v>
       </c>
       <c r="O38" t="n">
         <v>1460.63278584115</v>
@@ -7216,10 +7216,10 @@
         <v>1715.732642722259</v>
       </c>
       <c r="X38" t="n">
-        <v>1594.810154537005</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="Y38" t="n">
-        <v>1594.810154537005</v>
+        <v>1329.585604925845</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>711.3040340828909</v>
+        <v>355.5224853761694</v>
       </c>
       <c r="C39" t="n">
-        <v>521.8917598158546</v>
+        <v>355.5224853761694</v>
       </c>
       <c r="D39" t="n">
-        <v>361.1116435768863</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="E39" t="n">
-        <v>187.5484396983008</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F39" t="n">
-        <v>183.7836864312053</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G39" t="n">
         <v>34.31465285444518</v>
@@ -7253,52 +7253,52 @@
         <v>34.31465285444518</v>
       </c>
       <c r="J39" t="n">
-        <v>54.40930111025872</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K39" t="n">
-        <v>215.5091216889815</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L39" t="n">
-        <v>498.4142537443597</v>
+        <v>498.4142537443596</v>
       </c>
       <c r="M39" t="n">
-        <v>873.3058632974213</v>
+        <v>873.3058632974212</v>
       </c>
       <c r="N39" t="n">
-        <v>1082.820066520717</v>
+        <v>1276.539627797432</v>
       </c>
       <c r="O39" t="n">
-        <v>1395.953100567611</v>
+        <v>1589.672661844326</v>
       </c>
       <c r="P39" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="Q39" t="n">
         <v>1715.732642722259</v>
       </c>
       <c r="R39" t="n">
-        <v>1627.958867440573</v>
+        <v>1667.252990126698</v>
       </c>
       <c r="S39" t="n">
-        <v>1627.958867440573</v>
+        <v>1488.178720693242</v>
       </c>
       <c r="T39" t="n">
-        <v>1627.958867440573</v>
+        <v>1488.178720693242</v>
       </c>
       <c r="U39" t="n">
-        <v>1627.958867440573</v>
+        <v>1248.605595020789</v>
       </c>
       <c r="V39" t="n">
-        <v>1384.879149344207</v>
+        <v>1248.605595020789</v>
       </c>
       <c r="W39" t="n">
-        <v>1115.480580074498</v>
+        <v>979.2070257510804</v>
       </c>
       <c r="X39" t="n">
-        <v>1115.480580074498</v>
+        <v>759.6990313677768</v>
       </c>
       <c r="Y39" t="n">
-        <v>889.839887009826</v>
+        <v>534.0583383031044</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1715.732642722259</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="C40" t="n">
-        <v>1555.519804255719</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="D40" t="n">
-        <v>1555.519804255719</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="E40" t="n">
-        <v>1555.519804255719</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F40" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G40" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H40" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I40" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J40" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K40" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L40" t="n">
-        <v>1486.32208817288</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M40" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N40" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O40" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W40" t="n">
-        <v>1715.732642722259</v>
+        <v>258.475718923377</v>
       </c>
       <c r="X40" t="n">
-        <v>1715.732642722259</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="Y40" t="n">
-        <v>1715.732642722259</v>
+        <v>34.31465285444518</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1166.794881312374</v>
+        <v>951.7197055542953</v>
       </c>
       <c r="C41" t="n">
-        <v>1166.794881312374</v>
+        <v>951.7197055542953</v>
       </c>
       <c r="D41" t="n">
-        <v>1166.794881312374</v>
+        <v>951.7197055542953</v>
       </c>
       <c r="E41" t="n">
         <v>791.5636570076908</v>
@@ -7435,28 +7435,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R41" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S41" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T41" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U41" t="n">
-        <v>1357.666194286149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V41" t="n">
-        <v>1357.666194286149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W41" t="n">
-        <v>1357.666194286149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="X41" t="n">
-        <v>1357.666194286149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Y41" t="n">
-        <v>1357.666194286149</v>
+        <v>1329.585604925844</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>908.3382686120787</v>
+        <v>879.7061105840106</v>
       </c>
       <c r="C42" t="n">
-        <v>718.9259943450423</v>
+        <v>879.7061105840106</v>
       </c>
       <c r="D42" t="n">
         <v>718.9259943450423</v>
@@ -7490,22 +7490,22 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J42" t="n">
-        <v>54.4093011102587</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K42" t="n">
-        <v>215.5091216889814</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L42" t="n">
-        <v>498.4142537443597</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M42" t="n">
-        <v>873.3058632974213</v>
+        <v>853.2112150416077</v>
       </c>
       <c r="N42" t="n">
-        <v>1276.539627797432</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O42" t="n">
-        <v>1589.672661844326</v>
+        <v>1569.578013588513</v>
       </c>
       <c r="P42" t="n">
         <v>1625.19346494006</v>
@@ -7514,28 +7514,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R42" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S42" t="n">
-        <v>1536.658373288803</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="T42" t="n">
-        <v>1322.652080056737</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="U42" t="n">
-        <v>1322.652080056737</v>
+        <v>1388.385741768119</v>
       </c>
       <c r="V42" t="n">
-        <v>1322.652080056737</v>
+        <v>1145.306023671754</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.253510787029</v>
+        <v>1145.306023671754</v>
       </c>
       <c r="X42" t="n">
-        <v>1053.253510787029</v>
+        <v>925.7980292884499</v>
       </c>
       <c r="Y42" t="n">
-        <v>1053.253510787029</v>
+        <v>925.7980292884499</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1660.279830822096</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C43" t="n">
-        <v>1660.279830822096</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D43" t="n">
-        <v>1660.279830822096</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E43" t="n">
-        <v>1660.279830822096</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F43" t="n">
-        <v>1660.279830822096</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G43" t="n">
-        <v>1490.527291646717</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H43" t="n">
-        <v>1490.527291646717</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I43" t="n">
-        <v>1490.527291646717</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J43" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K43" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L43" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M43" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N43" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O43" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U43" t="n">
-        <v>1660.279830822096</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V43" t="n">
-        <v>1660.279830822096</v>
+        <v>258.475718923377</v>
       </c>
       <c r="W43" t="n">
-        <v>1660.279830822096</v>
+        <v>258.475718923377</v>
       </c>
       <c r="X43" t="n">
-        <v>1660.279830822096</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y43" t="n">
-        <v>1660.279830822096</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>306.0886035251705</v>
+        <v>1158.001846131089</v>
       </c>
       <c r="C44" t="n">
-        <v>306.0886035251705</v>
+        <v>1158.001846131089</v>
       </c>
       <c r="D44" t="n">
-        <v>306.0886035251705</v>
+        <v>816.8178464924752</v>
       </c>
       <c r="E44" t="n">
-        <v>34.31465285444516</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F44" t="n">
         <v>34.31465285444516</v>
@@ -7654,10 +7654,10 @@
         <v>253.8975067193751</v>
       </c>
       <c r="L44" t="n">
-        <v>525.5283691389718</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M44" t="n">
-        <v>856.6460009292779</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N44" t="n">
         <v>1186.279026157783</v>
@@ -7672,28 +7672,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R44" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S44" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T44" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U44" t="n">
-        <v>1357.666194286149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V44" t="n">
-        <v>1033.545200741551</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W44" t="n">
-        <v>692.2356413215846</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="X44" t="n">
-        <v>692.2356413215846</v>
+        <v>1544.148883927503</v>
       </c>
       <c r="Y44" t="n">
-        <v>306.0886035251705</v>
+        <v>1158.001846131089</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>745.9717411220391</v>
+        <v>344.9599739535371</v>
       </c>
       <c r="C45" t="n">
-        <v>556.5594668550028</v>
+        <v>344.9599739535371</v>
       </c>
       <c r="D45" t="n">
-        <v>395.7793506160345</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="E45" t="n">
-        <v>222.216146737449</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F45" t="n">
-        <v>222.216146737449</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G45" t="n">
-        <v>72.74711316068891</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H45" t="n">
         <v>34.31465285444516</v>
@@ -7730,49 +7730,49 @@
         <v>54.4093011102587</v>
       </c>
       <c r="K45" t="n">
-        <v>54.4093011102587</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L45" t="n">
-        <v>337.314433165637</v>
+        <v>498.4142537443597</v>
       </c>
       <c r="M45" t="n">
-        <v>712.2060427186985</v>
+        <v>770.1254798029026</v>
       </c>
       <c r="N45" t="n">
-        <v>1115.43980721871</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O45" t="n">
-        <v>1428.572841265604</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P45" t="n">
-        <v>1657.813205638054</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q45" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R45" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S45" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T45" t="n">
-        <v>1234.878304775051</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U45" t="n">
-        <v>1234.878304775051</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V45" t="n">
-        <v>1234.878304775051</v>
+        <v>839.9992362879182</v>
       </c>
       <c r="W45" t="n">
-        <v>965.4797355053428</v>
+        <v>570.6006670182095</v>
       </c>
       <c r="X45" t="n">
-        <v>745.9717411220391</v>
+        <v>570.6006670182095</v>
       </c>
       <c r="Y45" t="n">
-        <v>745.9717411220391</v>
+        <v>344.9599739535371</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1576.889614169534</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="C46" t="n">
-        <v>1576.889614169534</v>
+        <v>180.9637945218297</v>
       </c>
       <c r="D46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G46" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H46" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I46" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J46" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K46" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L46" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M46" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N46" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O46" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P46" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q46" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R46" t="n">
-        <v>1576.889614169534</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S46" t="n">
-        <v>1576.889614169534</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T46" t="n">
-        <v>1576.889614169534</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U46" t="n">
-        <v>1576.889614169534</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V46" t="n">
-        <v>1576.889614169534</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="W46" t="n">
-        <v>1576.889614169534</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="X46" t="n">
-        <v>1576.889614169534</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Y46" t="n">
-        <v>1576.889614169534</v>
+        <v>334.8576753800222</v>
       </c>
     </row>
   </sheetData>
@@ -8774,7 +8774,7 @@
         <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>44.62821923470622</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
         <v>301.77688131</v>
@@ -8786,7 +8786,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P12" t="n">
-        <v>206.3638740786793</v>
+        <v>10.68754955674461</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9017,13 +9017,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>114.9375340526878</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3638740786793</v>
+        <v>10.68754955674435</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9245,7 +9245,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>8.646382090491642</v>
+        <v>67.15086399372866</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9260,10 +9260,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
-        <v>173.4146410504036</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9479,10 +9479,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K21" t="n">
-        <v>171.373473584151</v>
+        <v>8.646382090491642</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9491,7 +9491,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>114.9375340526869</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -9500,7 +9500,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
-        <v>136.1300824528302</v>
+        <v>123.4784739253757</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9728,7 +9728,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>114.9375340526873</v>
+        <v>114.9375340526877</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -9953,22 +9953,22 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K27" t="n">
-        <v>8.646382090491642</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L27" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M27" t="n">
-        <v>301.77688131</v>
+        <v>126.3981812888867</v>
       </c>
       <c r="N27" t="n">
         <v>310.6138585746227</v>
       </c>
       <c r="O27" t="n">
-        <v>222.273549863045</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P27" t="n">
         <v>206.3638740786793</v>
@@ -10190,10 +10190,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>61.40936639976317</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>8.646382090491642</v>
+        <v>8.64638209049167</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
@@ -10205,13 +10205,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O30" t="n">
-        <v>242.571174363867</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P30" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.1300824528302</v>
+        <v>103.1808494245546</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10427,13 +10427,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K33" t="n">
         <v>171.373473584151</v>
       </c>
       <c r="L33" t="n">
-        <v>44.62821923470665</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M33" t="n">
         <v>301.77688131</v>
@@ -10445,7 +10445,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P33" t="n">
-        <v>206.3638740786793</v>
+        <v>30.98517405756658</v>
       </c>
       <c r="Q33" t="n">
         <v>136.1300824528302</v>
@@ -10682,10 +10682,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P36" t="n">
-        <v>10.68754955674429</v>
+        <v>102.1412644882571</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10913,16 +10913,16 @@
         <v>301.77688131</v>
       </c>
       <c r="N39" t="n">
-        <v>114.9375340526878</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O39" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P39" t="n">
-        <v>206.3638740786793</v>
+        <v>102.1412644882575</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11138,7 +11138,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K42" t="n">
         <v>171.373473584151</v>
@@ -11156,7 +11156,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P42" t="n">
-        <v>10.68754955674406</v>
+        <v>30.98517405756563</v>
       </c>
       <c r="Q42" t="n">
         <v>136.1300824528302</v>
@@ -11302,7 +11302,7 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L44" t="n">
-        <v>270.6444670286916</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M44" t="n">
         <v>291.2847697033555</v>
@@ -11317,7 +11317,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q44" t="n">
-        <v>137.5801139476182</v>
+        <v>137.580113947618</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11378,13 +11378,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>8.646382090491642</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L45" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M45" t="n">
-        <v>301.77688131</v>
+        <v>197.5542717195771</v>
       </c>
       <c r="N45" t="n">
         <v>310.6138585746227</v>
@@ -11396,7 +11396,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.1808494245544</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23266,19 +23266,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
-        <v>15.76544517947917</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>194.7117974622146</v>
@@ -23317,13 +23317,13 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V11" t="n">
-        <v>320.879783609152</v>
+        <v>252.4711810196602</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23339,16 +23339,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>149.0724997025254</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>147.9743432409925</v>
@@ -23357,7 +23357,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
-        <v>15.24703649414158</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,16 +23390,16 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
@@ -23436,10 +23436,10 @@
         <v>160.0829940331247</v>
       </c>
       <c r="I13" t="n">
-        <v>93.00459219947565</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J13" t="n">
-        <v>74.58429473553585</v>
+        <v>74.58429473553588</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.1432960270615</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R13" t="n">
         <v>174.3941919203111</v>
@@ -23475,13 +23475,13 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W13" t="n">
         <v>290.3107070893353</v>
       </c>
       <c r="X13" t="n">
-        <v>221.9194554082425</v>
+        <v>69.56451335863218</v>
       </c>
       <c r="Y13" t="n">
         <v>217.1412728141684</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>350.2054973811788</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H14" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T14" t="n">
         <v>216.1639724458418</v>
@@ -23554,16 +23554,16 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V14" t="n">
-        <v>216.8773565064072</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
-        <v>337.8964638257669</v>
+        <v>297.0978371424087</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>4.397940615206124</v>
       </c>
       <c r="D15" t="n">
-        <v>28.90770316800231</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I15" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
@@ -23676,7 +23676,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58429473553585</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.1432960270615</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R16" t="n">
         <v>174.3941919203111</v>
@@ -23706,19 +23706,19 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U16" t="n">
         <v>288.6213336334641</v>
       </c>
       <c r="V16" t="n">
-        <v>245.1090151844499</v>
+        <v>125.1883435490969</v>
       </c>
       <c r="W16" t="n">
         <v>290.3107070893353</v>
       </c>
       <c r="X16" t="n">
-        <v>145.3842603086281</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y16" t="n">
         <v>217.1412728141684</v>
@@ -23734,13 +23734,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
         <v>403.1992496400135</v>
@@ -23749,7 +23749,7 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I17" t="n">
         <v>185.5090622027478</v>
@@ -23782,25 +23782,25 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T17" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>29.90633143106839</v>
       </c>
       <c r="V17" t="n">
-        <v>178.8672507836804</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y17" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23813,22 +23813,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>114.5693169370395</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>80.84345120350704</v>
@@ -23864,19 +23864,19 @@
         <v>177.283526739121</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U18" t="n">
-        <v>221.45822826088</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E19" t="n">
-        <v>141.676141212225</v>
+        <v>4.221542945028602</v>
       </c>
       <c r="F19" t="n">
         <v>138.9268822184467</v>
@@ -23907,7 +23907,7 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H19" t="n">
-        <v>160.0829940331247</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>145.433169315347</v>
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R19" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T19" t="n">
         <v>221.0023972007068</v>
@@ -23952,7 +23952,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W19" t="n">
-        <v>290.1005996173321</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X19" t="n">
         <v>221.9194554082425</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>167.0156079746362</v>
+        <v>36.15730940107636</v>
       </c>
       <c r="C20" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>185.5090622027478</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24053,16 +24053,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>120.726663254738</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>118.2964226714636</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T21" t="n">
-        <v>211.8662302997449</v>
+        <v>164.4820822766094</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -24177,19 +24177,19 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>216.9573035902706</v>
       </c>
       <c r="T22" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U22" t="n">
-        <v>215.2679301343994</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>221.9194554082425</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>151.34987109573</v>
       </c>
       <c r="F23" t="n">
         <v>403.1992496400135</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U23" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V23" t="n">
-        <v>285.1493488776389</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24287,7 +24287,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>94.23414642525817</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
@@ -24299,7 +24299,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>30.34225936650593</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H24" t="n">
         <v>118.2964226714636</v>
@@ -24338,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D25" t="n">
-        <v>145.1826502507107</v>
+        <v>136.2663915838537</v>
       </c>
       <c r="E25" t="n">
         <v>141.676141212225</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.1432960270615</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R25" t="n">
         <v>174.3941919203111</v>
@@ -24420,13 +24420,13 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W25" t="n">
-        <v>159.2302957609864</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
         <v>221.9194554082425</v>
@@ -24451,16 +24451,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>198.8188010612361</v>
+        <v>242.036433262678</v>
       </c>
       <c r="H26" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>185.5090622027478</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>184.188235604604</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24584,10 +24584,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>56.72977803393042</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>168.0550137836253</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.1432960270615</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>15.78348183843659</v>
       </c>
       <c r="S28" t="n">
         <v>224.1841888012565</v>
@@ -24657,7 +24657,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U28" t="n">
-        <v>165.477933253454</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24682,10 +24682,10 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
         <v>371.4789120616362</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S29" t="n">
         <v>194.7117974622146</v>
@@ -24736,16 +24736,16 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>21.38908342417309</v>
       </c>
       <c r="V29" t="n">
-        <v>116.1379738818793</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>382.2855674184499</v>
@@ -24761,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -24770,7 +24770,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>53.74453367312265</v>
       </c>
       <c r="G30" t="n">
         <v>147.9743432409925</v>
@@ -24809,19 +24809,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>121.8638641836774</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
@@ -24852,7 +24852,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.0550137836253</v>
+        <v>15.70007173401484</v>
       </c>
       <c r="H31" t="n">
         <v>160.0829940331247</v>
@@ -24882,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R31" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S31" t="n">
-        <v>221.7093479362393</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T31" t="n">
         <v>221.0023972007068</v>
@@ -24903,7 +24903,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y31" t="n">
         <v>217.1412728141684</v>
@@ -24919,25 +24919,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H32" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>185.5090622027478</v>
+        <v>172.77866362366</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>141.8195587440382</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="33">
@@ -24998,16 +24998,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>15.87013256087536</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -25043,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>208.9397306605968</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
@@ -25119,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S34" t="n">
         <v>224.1841888012565</v>
@@ -25131,10 +25131,10 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U34" t="n">
-        <v>238.6212292805154</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V34" t="n">
-        <v>245.1090151844499</v>
+        <v>92.75407313483947</v>
       </c>
       <c r="W34" t="n">
         <v>290.3107070893353</v>
@@ -25159,10 +25159,10 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>130.5905726726075</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
         <v>403.1992496400135</v>
@@ -25171,10 +25171,10 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H35" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>333.6797412315841</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>382.2855674184499</v>
@@ -25238,19 +25238,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I36" t="n">
         <v>80.84345120350704</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>86.89603752886883</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>97.29219807573531</v>
       </c>
       <c r="T36" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25295,10 +25295,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>252.379573445483</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>168.7006619981109</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
         <v>166.4571809719723</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.1432960270615</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R37" t="n">
         <v>174.3941919203111</v>
@@ -25365,10 +25365,10 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T37" t="n">
-        <v>221.0023972007068</v>
+        <v>140.6060777145541</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25380,7 +25380,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4789120616362</v>
+        <v>212.9244240004971</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>185.5090622027478</v>
@@ -25456,10 +25456,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>240.0694509913049</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25472,19 +25472,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>155.0963333855038</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H39" t="n">
         <v>118.2964226714636</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>38.90118145926347</v>
       </c>
       <c r="S39" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>7.846470890097748</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -25560,7 +25560,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
         <v>168.0550137836253</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.1432960270615</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R40" t="n">
         <v>174.3941919203111</v>
@@ -25611,10 +25611,10 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>290.3107070893353</v>
+        <v>214.6925701972567</v>
       </c>
       <c r="X40" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>217.1412728141684</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>185.1246405337961</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>350.2054973811788</v>
@@ -25636,7 +25636,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>212.9244240004978</v>
       </c>
       <c r="F41" t="n">
         <v>403.1992496400135</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S41" t="n">
         <v>194.7117974622146</v>
@@ -25684,7 +25684,7 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25696,7 +25696,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>33.28440464446538</v>
+        <v>131.1194948802708</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25754,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -25800,7 +25800,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H43" t="n">
         <v>160.0829940331247</v>
@@ -25809,7 +25809,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U43" t="n">
-        <v>233.7230498523039</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V43" t="n">
-        <v>245.1090151844499</v>
+        <v>169.4908782923712</v>
       </c>
       <c r="W43" t="n">
         <v>290.3107070893353</v>
       </c>
       <c r="X43" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>217.1412728141684</v>
@@ -25870,13 +25870,13 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D44" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>102.4227008976181</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>417.3985592667085</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S44" t="n">
         <v>194.7117974622146</v>
@@ -25921,16 +25921,16 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
-        <v>359.7827142947061</v>
+        <v>189.9147930878981</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25946,22 +25946,22 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>10.45688630840584</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H45" t="n">
-        <v>80.24828696828229</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I45" t="n">
         <v>80.84345120350704</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26000,19 +26000,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26025,10 +26025,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
-        <v>166.4571809719723</v>
+        <v>14.10223892236181</v>
       </c>
       <c r="D46" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>141.676141212225</v>
@@ -26040,7 +26040,7 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I46" t="n">
         <v>145.433169315347</v>
@@ -26070,7 +26070,7 @@
         <v>73.1432960270615</v>
       </c>
       <c r="R46" t="n">
-        <v>36.93959365311451</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S46" t="n">
         <v>224.1841888012565</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>528996.9830074849</v>
+        <v>528996.9830074848</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>528996.9830074849</v>
+        <v>528996.9830074848</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>528996.9830074849</v>
+        <v>528996.9830074848</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>528996.9830074848</v>
+        <v>528996.9830074849</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>528996.9830074848</v>
+        <v>528996.9830074847</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>528996.9830074848</v>
+        <v>528996.9830074849</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>528996.9830074849</v>
+        <v>528996.9830074847</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>528996.9830074849</v>
+        <v>528996.9830074848</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>661448.9963823447</v>
+        <v>661448.9963823449</v>
       </c>
       <c r="C2" t="n">
-        <v>661448.9963823447</v>
+        <v>661448.9963823449</v>
       </c>
       <c r="D2" t="n">
         <v>661448.9963823449</v>
       </c>
       <c r="E2" t="n">
-        <v>375693.1876893954</v>
+        <v>375693.1876893953</v>
       </c>
       <c r="F2" t="n">
-        <v>375693.1876893954</v>
+        <v>375693.1876893953</v>
       </c>
       <c r="G2" t="n">
         <v>375693.1876893954</v>
@@ -26334,28 +26334,28 @@
         <v>375693.1876893953</v>
       </c>
       <c r="I2" t="n">
+        <v>375693.1876893954</v>
+      </c>
+      <c r="J2" t="n">
         <v>375693.1876893952</v>
       </c>
-      <c r="J2" t="n">
-        <v>375693.1876893954</v>
-      </c>
       <c r="K2" t="n">
-        <v>375693.1876893954</v>
+        <v>375693.1876893952</v>
       </c>
       <c r="L2" t="n">
         <v>375693.1876893952</v>
       </c>
       <c r="M2" t="n">
+        <v>375693.1876893952</v>
+      </c>
+      <c r="N2" t="n">
+        <v>375693.1876893953</v>
+      </c>
+      <c r="O2" t="n">
         <v>375693.1876893954</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>375693.1876893954</v>
-      </c>
-      <c r="O2" t="n">
-        <v>375693.1876893952</v>
-      </c>
-      <c r="P2" t="n">
-        <v>375693.1876893952</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>497053.1518174926</v>
+        <v>497053.1518174924</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>409080.1230532153</v>
       </c>
       <c r="E4" t="n">
-        <v>28394.46915996417</v>
+        <v>28394.46915996418</v>
       </c>
       <c r="F4" t="n">
         <v>28394.46915996418</v>
@@ -26435,7 +26435,7 @@
         <v>28394.46915996418</v>
       </c>
       <c r="H4" t="n">
-        <v>28394.46915996418</v>
+        <v>28394.46915996417</v>
       </c>
       <c r="I4" t="n">
         <v>28394.46915996418</v>
@@ -26459,7 +26459,7 @@
         <v>28394.46915996418</v>
       </c>
       <c r="P4" t="n">
-        <v>28394.46915996418</v>
+        <v>28394.46915996417</v>
       </c>
     </row>
     <row r="5">
@@ -26478,31 +26478,31 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="F5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="G5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="H5" t="n">
         <v>36091.33751189045</v>
       </c>
       <c r="I5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="J5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="K5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="L5" t="n">
         <v>36091.33751189047</v>
       </c>
       <c r="M5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="N5" t="n">
         <v>36091.33751189047</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>218741.2733291295</v>
+        <v>218696.6094870777</v>
       </c>
       <c r="C6" t="n">
-        <v>218741.2733291295</v>
+        <v>218696.6094870777</v>
       </c>
       <c r="D6" t="n">
-        <v>218741.2733291296</v>
+        <v>218696.6094870777</v>
       </c>
       <c r="E6" t="n">
-        <v>-185845.7707999518</v>
+        <v>-195415.628265102</v>
       </c>
       <c r="F6" t="n">
-        <v>311207.3810175408</v>
+        <v>301637.5235523905</v>
       </c>
       <c r="G6" t="n">
-        <v>311207.3810175408</v>
+        <v>301637.5235523906</v>
       </c>
       <c r="H6" t="n">
-        <v>311207.3810175406</v>
+        <v>301637.5235523904</v>
       </c>
       <c r="I6" t="n">
-        <v>311207.3810175406</v>
+        <v>301637.5235523906</v>
       </c>
       <c r="J6" t="n">
-        <v>311207.3810175408</v>
+        <v>301637.5235523903</v>
       </c>
       <c r="K6" t="n">
-        <v>311207.3810175408</v>
+        <v>301637.5235523903</v>
       </c>
       <c r="L6" t="n">
-        <v>311207.3810175405</v>
+        <v>301637.5235523903</v>
       </c>
       <c r="M6" t="n">
-        <v>204315.5216433014</v>
+        <v>194745.664178151</v>
       </c>
       <c r="N6" t="n">
-        <v>311207.3810175408</v>
+        <v>301637.5235523905</v>
       </c>
       <c r="O6" t="n">
-        <v>311207.3810175406</v>
+        <v>301637.5235523906</v>
       </c>
       <c r="P6" t="n">
-        <v>311207.3810175405</v>
+        <v>301637.5235523906</v>
       </c>
     </row>
   </sheetData>
@@ -26746,34 +26746,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409235</v>
       </c>
       <c r="F3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="G3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="H3" t="n">
         <v>459.2752909409237</v>
       </c>
       <c r="I3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="J3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="K3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="L3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="M3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="N3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="O3" t="n">
         <v>459.2752909409237</v>
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="F4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="G4" t="n">
         <v>428.9331606805646</v>
@@ -26816,7 +26816,7 @@
         <v>428.9331606805646</v>
       </c>
       <c r="K4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="L4" t="n">
         <v>428.9331606805647</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409235</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,43 +31755,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H11" t="n">
-        <v>18.90875607376375</v>
+        <v>18.90875607376374</v>
       </c>
       <c r="I11" t="n">
-        <v>71.18074634773855</v>
+        <v>71.18074634773852</v>
       </c>
       <c r="J11" t="n">
-        <v>156.7051908522502</v>
+        <v>156.7051908522501</v>
       </c>
       <c r="K11" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L11" t="n">
-        <v>291.365167739336</v>
+        <v>291.3651677393358</v>
       </c>
       <c r="M11" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675595</v>
       </c>
       <c r="N11" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O11" t="n">
-        <v>311.0863102573771</v>
+        <v>311.086310257377</v>
       </c>
       <c r="P11" t="n">
-        <v>265.5049685685166</v>
+        <v>265.5049685685165</v>
       </c>
       <c r="Q11" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R11" t="n">
-        <v>115.9797045007751</v>
+        <v>115.979704500775</v>
       </c>
       <c r="S11" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584441</v>
       </c>
       <c r="T11" t="n">
-        <v>8.082321954146304</v>
+        <v>8.0823219541463</v>
       </c>
       <c r="U11" t="n">
         <v>0.1477066262322567</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.987875154099345</v>
       </c>
       <c r="H12" t="n">
-        <v>9.540794251433153</v>
+        <v>9.54079425143315</v>
       </c>
       <c r="I12" t="n">
-        <v>34.01236824420992</v>
+        <v>34.01236824420991</v>
       </c>
       <c r="J12" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357014</v>
       </c>
       <c r="K12" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L12" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M12" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N12" t="n">
-        <v>256.9298629953381</v>
+        <v>256.929862995338</v>
       </c>
       <c r="O12" t="n">
-        <v>235.0406293176631</v>
+        <v>235.040629317663</v>
       </c>
       <c r="P12" t="n">
         <v>188.640826575339</v>
@@ -31864,16 +31864,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R12" t="n">
-        <v>61.33491526943131</v>
+        <v>61.33491526943128</v>
       </c>
       <c r="S12" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T12" t="n">
-        <v>3.981830116742535</v>
+        <v>3.981830116742534</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.0649917864539043</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,28 +31910,28 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196981</v>
       </c>
       <c r="H13" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315139</v>
       </c>
       <c r="I13" t="n">
-        <v>24.90627315463239</v>
+        <v>24.90627315463238</v>
       </c>
       <c r="J13" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340265</v>
       </c>
       <c r="K13" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368854</v>
       </c>
       <c r="L13" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M13" t="n">
-        <v>129.8243252736778</v>
+        <v>129.8243252736777</v>
       </c>
       <c r="N13" t="n">
-        <v>126.7373929903045</v>
+        <v>126.7373929903044</v>
       </c>
       <c r="O13" t="n">
         <v>117.0624954680243</v>
@@ -31940,19 +31940,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207945</v>
       </c>
       <c r="R13" t="n">
-        <v>37.2389440818657</v>
+        <v>37.23894408186569</v>
       </c>
       <c r="S13" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T13" t="n">
-        <v>3.538678471184165</v>
+        <v>3.538678471184164</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.04517461878107449</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,43 +31992,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H14" t="n">
-        <v>18.90875607376375</v>
+        <v>18.90875607376374</v>
       </c>
       <c r="I14" t="n">
-        <v>71.18074634773855</v>
+        <v>71.18074634773853</v>
       </c>
       <c r="J14" t="n">
-        <v>156.7051908522502</v>
+        <v>156.7051908522501</v>
       </c>
       <c r="K14" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L14" t="n">
-        <v>291.365167739336</v>
+        <v>291.3651677393359</v>
       </c>
       <c r="M14" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N14" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O14" t="n">
-        <v>311.0863102573771</v>
+        <v>311.086310257377</v>
       </c>
       <c r="P14" t="n">
-        <v>265.5049685685166</v>
+        <v>265.5049685685165</v>
       </c>
       <c r="Q14" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R14" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S14" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T14" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U14" t="n">
         <v>0.1477066262322567</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993451</v>
       </c>
       <c r="H15" t="n">
-        <v>9.540794251433153</v>
+        <v>9.54079425143315</v>
       </c>
       <c r="I15" t="n">
-        <v>34.01236824420992</v>
+        <v>34.01236824420991</v>
       </c>
       <c r="J15" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357015</v>
       </c>
       <c r="K15" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L15" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M15" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N15" t="n">
-        <v>256.9298629953381</v>
+        <v>256.929862995338</v>
       </c>
       <c r="O15" t="n">
-        <v>235.0406293176631</v>
+        <v>235.040629317663</v>
       </c>
       <c r="P15" t="n">
         <v>188.640826575339</v>
@@ -32101,16 +32101,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R15" t="n">
-        <v>61.33491526943131</v>
+        <v>61.33491526943129</v>
       </c>
       <c r="S15" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T15" t="n">
-        <v>3.981830116742535</v>
+        <v>3.981830116742534</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196982</v>
       </c>
       <c r="H16" t="n">
-        <v>7.363462861315142</v>
+        <v>7.36346286131514</v>
       </c>
       <c r="I16" t="n">
-        <v>24.90627315463239</v>
+        <v>24.90627315463238</v>
       </c>
       <c r="J16" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K16" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368855</v>
       </c>
       <c r="L16" t="n">
         <v>123.1309525909486</v>
@@ -32168,7 +32168,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N16" t="n">
-        <v>126.7373929903045</v>
+        <v>126.7373929903044</v>
       </c>
       <c r="O16" t="n">
         <v>117.0624954680243</v>
@@ -32177,19 +32177,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207945</v>
       </c>
       <c r="R16" t="n">
-        <v>37.2389440818657</v>
+        <v>37.23894408186569</v>
       </c>
       <c r="S16" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T16" t="n">
-        <v>3.538678471184165</v>
+        <v>3.538678471184164</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32238,16 +32238,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K17" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L17" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M17" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N17" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O17" t="n">
         <v>311.0863102573771</v>
@@ -32256,16 +32256,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R17" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S17" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T17" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U17" t="n">
         <v>0.1477066262322567</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H18" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I18" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J18" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K18" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L18" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M18" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N18" t="n">
         <v>256.9298629953381</v>
@@ -32338,16 +32338,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R18" t="n">
-        <v>61.33491526943131</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S18" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T18" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H19" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I19" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J19" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K19" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L19" t="n">
         <v>123.1309525909486</v>
@@ -32414,7 +32414,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R19" t="n">
         <v>37.2389440818657</v>
@@ -32426,7 +32426,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32712,16 +32712,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K23" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L23" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M23" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N23" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O23" t="n">
         <v>311.0863102573771</v>
@@ -32730,16 +32730,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q23" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R23" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S23" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T23" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U23" t="n">
         <v>0.1477066262322567</v>
@@ -32779,25 +32779,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H24" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I24" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J24" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K24" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L24" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M24" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N24" t="n">
         <v>256.9298629953381</v>
@@ -32812,16 +32812,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R24" t="n">
-        <v>61.33491526943131</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S24" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T24" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H25" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I25" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J25" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K25" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L25" t="n">
         <v>123.1309525909486</v>
@@ -32888,7 +32888,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R25" t="n">
         <v>37.2389440818657</v>
@@ -32900,7 +32900,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32949,16 +32949,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K26" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L26" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M26" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N26" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O26" t="n">
         <v>311.0863102573771</v>
@@ -32967,16 +32967,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q26" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R26" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S26" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T26" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U26" t="n">
         <v>0.1477066262322567</v>
@@ -33016,25 +33016,25 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H27" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I27" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J27" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K27" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L27" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M27" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N27" t="n">
         <v>256.9298629953381</v>
@@ -33049,16 +33049,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R27" t="n">
-        <v>61.33491526943131</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S27" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T27" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H28" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I28" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J28" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K28" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L28" t="n">
         <v>123.1309525909486</v>
@@ -33125,7 +33125,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R28" t="n">
         <v>37.2389440818657</v>
@@ -33137,7 +33137,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33186,16 +33186,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K29" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L29" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M29" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N29" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O29" t="n">
         <v>311.0863102573771</v>
@@ -33204,16 +33204,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q29" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R29" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S29" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T29" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U29" t="n">
         <v>0.1477066262322567</v>
@@ -33253,25 +33253,25 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H30" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I30" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J30" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K30" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L30" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M30" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N30" t="n">
         <v>256.9298629953381</v>
@@ -33286,16 +33286,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R30" t="n">
-        <v>61.33491526943131</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S30" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T30" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H31" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I31" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J31" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K31" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L31" t="n">
         <v>123.1309525909486</v>
@@ -33362,7 +33362,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R31" t="n">
         <v>37.2389440818657</v>
@@ -33374,7 +33374,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33423,16 +33423,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K32" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L32" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M32" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N32" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O32" t="n">
         <v>311.0863102573771</v>
@@ -33441,16 +33441,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q32" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R32" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S32" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T32" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U32" t="n">
         <v>0.1477066262322567</v>
@@ -33490,25 +33490,25 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H33" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I33" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J33" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K33" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L33" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M33" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N33" t="n">
         <v>256.9298629953381</v>
@@ -33523,16 +33523,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R33" t="n">
-        <v>61.33491526943131</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S33" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T33" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H34" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I34" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J34" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K34" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L34" t="n">
         <v>123.1309525909486</v>
@@ -33599,7 +33599,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R34" t="n">
         <v>37.2389440818657</v>
@@ -33611,7 +33611,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33660,16 +33660,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K35" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L35" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M35" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N35" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O35" t="n">
         <v>311.0863102573771</v>
@@ -33678,16 +33678,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q35" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R35" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S35" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T35" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U35" t="n">
         <v>0.1477066262322567</v>
@@ -33727,25 +33727,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H36" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I36" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J36" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K36" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L36" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M36" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N36" t="n">
         <v>256.9298629953381</v>
@@ -33760,16 +33760,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R36" t="n">
-        <v>61.33491526943131</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S36" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T36" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H37" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I37" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J37" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K37" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L37" t="n">
         <v>123.1309525909486</v>
@@ -33836,7 +33836,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R37" t="n">
         <v>37.2389440818657</v>
@@ -33848,7 +33848,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33897,16 +33897,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K38" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L38" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M38" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N38" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O38" t="n">
         <v>311.0863102573771</v>
@@ -33915,16 +33915,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q38" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R38" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S38" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T38" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U38" t="n">
         <v>0.1477066262322567</v>
@@ -33964,25 +33964,25 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H39" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I39" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J39" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K39" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L39" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M39" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N39" t="n">
         <v>256.9298629953381</v>
@@ -33997,16 +33997,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R39" t="n">
-        <v>61.33491526943131</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S39" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T39" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H40" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I40" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J40" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K40" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L40" t="n">
         <v>123.1309525909486</v>
@@ -34073,7 +34073,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R40" t="n">
         <v>37.2389440818657</v>
@@ -34085,7 +34085,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119663</v>
       </c>
       <c r="K11" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L11" t="n">
-        <v>274.3746085046434</v>
+        <v>274.3746085046433</v>
       </c>
       <c r="M11" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336423</v>
       </c>
       <c r="N11" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O11" t="n">
-        <v>277.1250097811783</v>
+        <v>277.1250097811782</v>
       </c>
       <c r="P11" t="n">
-        <v>191.9262766422085</v>
+        <v>191.9262766422084</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002263</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>20.29762450082175</v>
+        <v>20.29762450082171</v>
       </c>
       <c r="K12" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L12" t="n">
-        <v>90.08643512996187</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M12" t="n">
-        <v>378.678393487941</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N12" t="n">
-        <v>407.3068328282941</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O12" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P12" t="n">
-        <v>231.5559236085354</v>
+        <v>35.87959908660067</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.45371493151266</v>
+        <v>91.45371493151262</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970232</v>
       </c>
       <c r="L13" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676513</v>
       </c>
       <c r="M13" t="n">
-        <v>76.00912912692043</v>
+        <v>76.00912912692037</v>
       </c>
       <c r="N13" t="n">
-        <v>82.29890925793121</v>
+        <v>82.29890925793117</v>
       </c>
       <c r="O13" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186794</v>
       </c>
       <c r="P13" t="n">
-        <v>19.62327613144093</v>
+        <v>19.6232761314409</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K14" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L14" t="n">
-        <v>274.3746085046434</v>
+        <v>274.3746085046433</v>
       </c>
       <c r="M14" t="n">
         <v>334.4622543336424</v>
       </c>
       <c r="N14" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O14" t="n">
-        <v>277.1250097811783</v>
+        <v>277.1250097811782</v>
       </c>
       <c r="P14" t="n">
-        <v>191.9262766422085</v>
+        <v>191.9262766422084</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>20.29762450082175</v>
+        <v>20.29762450082173</v>
       </c>
       <c r="K15" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L15" t="n">
-        <v>285.7627596518972</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M15" t="n">
-        <v>378.678393487941</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N15" t="n">
-        <v>211.6305083063592</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O15" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P15" t="n">
-        <v>231.5559236085354</v>
+        <v>35.87959908660044</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.45371493151266</v>
+        <v>91.45371493151264</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970246</v>
       </c>
       <c r="L16" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676515</v>
       </c>
       <c r="M16" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N16" t="n">
-        <v>82.29890925793121</v>
+        <v>82.29890925793119</v>
       </c>
       <c r="O16" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186795</v>
       </c>
       <c r="P16" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N17" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O17" t="n">
         <v>277.1250097811783</v>
@@ -35904,7 +35904,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>20.29762450082175</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>58.50448190323699</v>
       </c>
       <c r="L18" t="n">
         <v>285.7627596518972</v>
@@ -35977,13 +35977,13 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O18" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P18" t="n">
-        <v>198.6066905802598</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q18" t="n">
-        <v>91.45371493151266</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L19" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M19" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N19" t="n">
-        <v>82.29890925793121</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O19" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P19" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>20.29762450082175</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>285.7627596518972</v>
@@ -36211,7 +36211,7 @@
         <v>378.678393487941</v>
       </c>
       <c r="N21" t="n">
-        <v>211.6305083063583</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O21" t="n">
         <v>316.2959939867617</v>
@@ -36220,7 +36220,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q21" t="n">
-        <v>91.45371493151266</v>
+        <v>78.80210640405815</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N23" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O23" t="n">
         <v>277.1250097811783</v>
@@ -36378,7 +36378,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>20.29762450082175</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K24" t="n">
         <v>162.7270914936593</v>
@@ -36448,16 +36448,16 @@
         <v>378.678393487941</v>
       </c>
       <c r="N24" t="n">
-        <v>211.6305083063587</v>
+        <v>211.630508306359</v>
       </c>
       <c r="O24" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P24" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q24" t="n">
-        <v>91.45371493151266</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L25" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M25" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N25" t="n">
-        <v>82.29890925793121</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O25" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P25" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N26" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O26" t="n">
         <v>277.1250097811783</v>
@@ -36615,7 +36615,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>20.29762450082175</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L27" t="n">
         <v>285.7627596518972</v>
       </c>
       <c r="M27" t="n">
-        <v>378.678393487941</v>
+        <v>203.2996934668277</v>
       </c>
       <c r="N27" t="n">
         <v>407.3068328282941</v>
       </c>
       <c r="O27" t="n">
-        <v>283.3467609584859</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P27" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q27" t="n">
-        <v>91.45371493151266</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L28" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M28" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N28" t="n">
-        <v>82.29890925793121</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O28" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P28" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N29" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O29" t="n">
         <v>277.1250097811783</v>
@@ -36852,7 +36852,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36925,13 +36925,13 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O30" t="n">
-        <v>303.6443854593079</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P30" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q30" t="n">
-        <v>91.45371493151266</v>
+        <v>58.50448190323704</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L31" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M31" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N31" t="n">
-        <v>82.29890925793121</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O31" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P31" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N32" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O32" t="n">
         <v>277.1250097811783</v>
@@ -37089,7 +37089,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.29762450082175</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L33" t="n">
-        <v>90.0864351299623</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M33" t="n">
         <v>378.678393487941</v>
@@ -37162,13 +37162,13 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O33" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P33" t="n">
-        <v>231.5559236085354</v>
+        <v>56.1772235874227</v>
       </c>
       <c r="Q33" t="n">
-        <v>91.45371493151266</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L34" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M34" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N34" t="n">
-        <v>82.29890925793121</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O34" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P34" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N35" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O35" t="n">
         <v>277.1250097811783</v>
@@ -37326,7 +37326,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q35" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>20.29762450082175</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K36" t="n">
         <v>162.7270914936593</v>
@@ -37399,13 +37399,13 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O36" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P36" t="n">
-        <v>35.87959908660044</v>
+        <v>127.3333140181132</v>
       </c>
       <c r="Q36" t="n">
-        <v>91.45371493151266</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L37" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M37" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N37" t="n">
-        <v>82.29890925793121</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O37" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P37" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N38" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O38" t="n">
         <v>277.1250097811783</v>
@@ -37563,7 +37563,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q38" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>20.29762450082175</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K39" t="n">
         <v>162.7270914936593</v>
@@ -37633,16 +37633,16 @@
         <v>378.678393487941</v>
       </c>
       <c r="N39" t="n">
-        <v>211.6305083063592</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O39" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P39" t="n">
-        <v>231.5559236085354</v>
+        <v>127.3333140181136</v>
       </c>
       <c r="Q39" t="n">
-        <v>91.45371493151266</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L40" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M40" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N40" t="n">
-        <v>82.29890925793121</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O40" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P40" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>20.29762450082175</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>162.7270914936593</v>
@@ -37876,7 +37876,7 @@
         <v>316.2959939867617</v>
       </c>
       <c r="P42" t="n">
-        <v>35.87959908660021</v>
+        <v>56.17722358742178</v>
       </c>
       <c r="Q42" t="n">
         <v>91.45371493151266</v>
@@ -38022,7 +38022,7 @@
         <v>176.3970685286315</v>
       </c>
       <c r="L44" t="n">
-        <v>274.3746085046432</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M44" t="n">
         <v>334.4622543336424</v>
@@ -38037,7 +38037,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q44" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002249</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>20.29762450082175</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L45" t="n">
         <v>285.7627596518972</v>
       </c>
       <c r="M45" t="n">
-        <v>378.678393487941</v>
+        <v>274.4557838975181</v>
       </c>
       <c r="N45" t="n">
         <v>407.3068328282941</v>
@@ -38116,7 +38116,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q45" t="n">
-        <v>58.50448190323682</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
